--- a/data/trans_dic/P32C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.01311615544112123</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.007126141452723446</v>
+        <v>0.007126141452723445</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002059772752498262</v>
+        <v>0.002049834240436635</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006023410163858727</v>
+        <v>0.006120696494304176</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007478278335877663</v>
+        <v>0.007933724312629826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00167454015243908</v>
+        <v>0.001617801412330458</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00145691154537061</v>
+        <v>0.001453070205996066</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.005257590901736632</v>
+        <v>0.00550837320661735</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005233586127959652</v>
+        <v>0.005238724376142656</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.00283668282200981</v>
+        <v>0.002698512316814435</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01878243108096207</v>
+        <v>0.01687256636984872</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02810744411859719</v>
+        <v>0.02887815992712647</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0354250578058193</v>
+        <v>0.03886665844703689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01865011795911271</v>
+        <v>0.01660464220936448</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.02962626484434884</v>
+        <v>0.02929723316898943</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01351577396178735</v>
+        <v>0.01213911605191042</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02232192856141618</v>
+        <v>0.02213478141423709</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02554681059705513</v>
+        <v>0.02562874826110098</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01425361365311981</v>
+        <v>0.01453592769900134</v>
       </c>
     </row>
     <row r="7">
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006713823079194337</v>
+        <v>0.006841434857234126</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006809212337539634</v>
+        <v>0.005439945329458631</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00713688763009046</v>
+        <v>0.007336321261029065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006646394799100693</v>
+        <v>0.006656349564706682</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004520365352873346</v>
+        <v>0.004361368393329412</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004769956613413792</v>
+        <v>0.004482461823079533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004381122795244889</v>
+        <v>0.003852855316554571</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00520248007672752</v>
+        <v>0.005758125743784164</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008309539308590103</v>
+        <v>0.007906792635007034</v>
       </c>
     </row>
     <row r="9">
@@ -876,36 +876,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02832800762213129</v>
+        <v>0.02882173579069579</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02775062391065453</v>
+        <v>0.02704705307892463</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03058201291278059</v>
+        <v>0.03163653109941175</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02673510583152724</v>
+        <v>0.02762844426230791</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.02082358790445444</v>
+        <v>0.01944151434954821</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04563756136359582</v>
+        <v>0.04626126461816805</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02001177551603421</v>
+        <v>0.01927590679758157</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01744753092172853</v>
+        <v>0.01752985416141416</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02016310463547413</v>
+        <v>0.02112255297623285</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02726899530851588</v>
+        <v>0.02555797643832699</v>
       </c>
     </row>
     <row r="10">
@@ -929,7 +929,7 @@
         <v>0.019411276617023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.006392517257251441</v>
+        <v>0.00639251725725144</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -964,13 +964,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01729538235095642</v>
+        <v>0.01811239569976321</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01102472655418976</v>
+        <v>0.01132798902334498</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009015251245779529</v>
+        <v>0.009175016420726366</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01383361148624195</v>
+        <v>0.01195433321390492</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007709781423912512</v>
+        <v>0.007856317591616457</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004987272112256313</v>
+        <v>0.006156045480447335</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002023312427726727</v>
+        <v>0.001999503745002292</v>
       </c>
     </row>
     <row r="12">
@@ -1002,34 +1002,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0569137771024176</v>
+        <v>0.05927307663920914</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04103195904508759</v>
+        <v>0.04184254605645086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03857527261671337</v>
+        <v>0.03599264928665843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02214671329351213</v>
+        <v>0.02251237068026812</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.05751966519588823</v>
+        <v>0.06162389733914532</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04492816809038383</v>
+        <v>0.04175821102350385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02830945781940581</v>
+        <v>0.02774245977171177</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02300505859468444</v>
+        <v>0.02438030357139909</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02681811708857238</v>
+        <v>0.02379063940706657</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.01244430992785064</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01589613337175548</v>
+        <v>0.01589613337175547</v>
       </c>
     </row>
     <row r="14">
@@ -1088,40 +1088,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01273114171539401</v>
+        <v>0.0133644161090122</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01761736002169094</v>
+        <v>0.01659169239099169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005255314375281051</v>
+        <v>0.005226569749941794</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008308255823528293</v>
+        <v>0.007852785784536701</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01134861604662879</v>
+        <v>0.01007172335185893</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004807609183074778</v>
+        <v>0.004752513702568669</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005143586478269504</v>
+        <v>0.00412354427248301</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01615107915021743</v>
+        <v>0.01556982002632843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01253136133059295</v>
+        <v>0.01217492098218419</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.006251338209326548</v>
+        <v>0.006380232276035856</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.00881125042973426</v>
+        <v>0.009346619319481832</v>
       </c>
     </row>
     <row r="15">
@@ -1132,40 +1132,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03787612830912491</v>
+        <v>0.04015749626125219</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05179484853495925</v>
+        <v>0.04789468130294411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02320480228297655</v>
+        <v>0.02322680594838424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02985035214506228</v>
+        <v>0.03106105308744611</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05199501465141695</v>
+        <v>0.05336702610300752</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01668014371086949</v>
+        <v>0.01664270952673021</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02751075233060008</v>
+        <v>0.02913871950276202</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04457399527379175</v>
+        <v>0.04534443229665931</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03807458314594296</v>
+        <v>0.03829464364647705</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.032511262847252</v>
+        <v>0.03226786426886138</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02082090712510169</v>
+        <v>0.02120076834486137</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02792723108433024</v>
+        <v>0.02863479529306013</v>
       </c>
     </row>
     <row r="16">
@@ -1224,40 +1224,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01281693896424134</v>
+        <v>0.01301971826147105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0141874989351376</v>
+        <v>0.01440559607124159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0108497081337066</v>
+        <v>0.01098864439370814</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.007756922608885372</v>
+        <v>0.007347989404332811</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0009630792345362535</v>
+        <v>0.0009595856740596809</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001914915120943003</v>
+        <v>0.001850456403285145</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.006341186129824283</v>
+        <v>0.005824101523974954</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01116283748078772</v>
+        <v>0.01164475649040785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01039647863444479</v>
+        <v>0.01039946988470924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.008696398831012439</v>
+        <v>0.00880114899556053</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008516395485283866</v>
+        <v>0.008191063477085071</v>
       </c>
     </row>
     <row r="18">
@@ -1268,40 +1268,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02601311303635077</v>
+        <v>0.02572882220392149</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02727992250659002</v>
+        <v>0.02836668477726434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0221994370134335</v>
+        <v>0.02214979907232317</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01742727797994687</v>
+        <v>0.01763653451445413</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.007838732907150991</v>
+        <v>0.008626124392514744</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01149496371059047</v>
+        <v>0.0109407341170745</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0261580429546209</v>
+        <v>0.02341685692354535</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02079714728170491</v>
+        <v>0.02140319273544139</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01923393796227092</v>
+        <v>0.01899899703076095</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01693567000448033</v>
+        <v>0.01695520910173678</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01714540060837011</v>
+        <v>0.01699467884024447</v>
       </c>
     </row>
     <row r="19">
@@ -1572,16 +1572,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2560</v>
+        <v>2602</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3161</v>
+        <v>3354</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
@@ -1592,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3139</v>
+        <v>3289</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1495</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="7">
@@ -1612,36 +1612,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8251</v>
+        <v>7412</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11948</v>
+        <v>12276</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14975</v>
+        <v>16429</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6601</v>
+        <v>5877</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5095</v>
+        <v>5038</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8379</v>
+        <v>7525</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13327</v>
+        <v>13215</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15498</v>
+        <v>15547</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7512</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="8">
@@ -1744,16 +1744,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3907</v>
+        <v>3981</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4026</v>
+        <v>3216</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4040</v>
+        <v>4153</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3328</v>
+        <v>3333</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
@@ -1761,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1012</v>
+        <v>976</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4109</v>
+        <v>3861</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3876</v>
+        <v>3409</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4582</v>
+        <v>5072</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6021</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="11">
@@ -1784,36 +1784,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16484</v>
+        <v>16771</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16407</v>
+        <v>15991</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17314</v>
+        <v>17911</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13387</v>
+        <v>13834</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6552</v>
+        <v>6117</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10218</v>
+        <v>10357</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>17238</v>
+        <v>16604</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>15436</v>
+        <v>15508</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17759</v>
+        <v>18604</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19759</v>
+        <v>18520</v>
       </c>
     </row>
     <row r="12">
@@ -1916,13 +1916,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5708</v>
+        <v>5978</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5057</v>
+        <v>5196</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3847</v>
+        <v>3915</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6356</v>
+        <v>5493</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5117</v>
+        <v>5214</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3268</v>
+        <v>4034</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1136</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="15">
@@ -1954,34 +1954,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18785</v>
+        <v>19563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18821</v>
+        <v>19193</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16460</v>
+        <v>15358</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7977</v>
+        <v>8109</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>11569</v>
+        <v>12395</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20643</v>
+        <v>19186</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>18787</v>
+        <v>18411</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15076</v>
+        <v>15977</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>15053</v>
+        <v>13354</v>
       </c>
     </row>
     <row r="16">
@@ -2084,40 +2084,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6730</v>
+        <v>7065</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9817</v>
+        <v>9245</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2973</v>
+        <v>2957</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3869</v>
+        <v>3657</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3462</v>
+        <v>3072</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1938</v>
+        <v>1915</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1587</v>
+        <v>1273</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13465</v>
+        <v>12981</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>11622</v>
+        <v>11291</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6056</v>
+        <v>6181</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6822</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="19">
@@ -2128,40 +2128,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20023</v>
+        <v>21229</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28862</v>
+        <v>26688</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13127</v>
+        <v>13139</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13900</v>
+        <v>14464</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15861</v>
+        <v>16280</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6175</v>
+        <v>6161</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11087</v>
+        <v>11743</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13757</v>
+        <v>13995</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>31743</v>
+        <v>31926</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>30151</v>
+        <v>29926</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20170</v>
+        <v>20538</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>21624</v>
+        <v>22172</v>
       </c>
     </row>
     <row r="20">
@@ -2264,40 +2264,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24095</v>
+        <v>24476</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28832</v>
+        <v>29276</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21496</v>
+        <v>21771</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13036</v>
+        <v>12348</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2164</v>
+        <v>2091</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5750</v>
+        <v>5281</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>30971</v>
+        <v>32308</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>31946</v>
+        <v>31955</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>27058</v>
+        <v>27384</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>22034</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="23">
@@ -2308,40 +2308,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>48903</v>
+        <v>48368</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>55439</v>
+        <v>57648</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>43982</v>
+        <v>43884</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29287</v>
+        <v>29638</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>8157</v>
+        <v>8976</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12992</v>
+        <v>12365</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23718</v>
+        <v>21233</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>57702</v>
+        <v>59383</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>59102</v>
+        <v>58380</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>52694</v>
+        <v>52755</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>44359</v>
+        <v>43969</v>
       </c>
     </row>
     <row r="24">
